--- a/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3453C0FC-DD20-46D8-A093-19109AE7D71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2B5B1F-71DC-49D9-BE9E-165FDCD8DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A17B2046-24A0-4C77-A175-ED41A8771AAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE2ABE4-893F-4B1D-A75B-7865B8355528}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más por semana</t>
@@ -104,28 +104,28 @@
     <t>46,08%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>Diariamente, aunque menos de dos al día</t>
@@ -134,892 +134,883 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>34,61%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>15,69%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>16,04%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>51,04%</t>
@@ -1028,34 +1019,34 @@
     <t>48,3%</t>
   </si>
   <si>
-    <t>52,68%</t>
+    <t>52,73%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1470,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1980AE-E5A5-48A1-B008-B70E3C330D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C94569-1837-42D2-B6F2-6C2F5F98DAC7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2123,13 +2114,13 @@
         <v>20583</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -2138,13 +2129,13 @@
         <v>48384</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2150,13 @@
         <v>107494</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>99</v>
@@ -2174,13 +2165,13 @@
         <v>73944</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>211</v>
@@ -2189,13 +2180,13 @@
         <v>181439</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,22 +2201,22 @@
         <v>117602</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>260</v>
       </c>
       <c r="I16" s="7">
-        <v>174467</v>
+        <v>174468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>110</v>
@@ -2273,7 +2264,7 @@
         <v>146</v>
       </c>
       <c r="I17" s="7">
-        <v>102078</v>
+        <v>102079</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2324,7 +2315,7 @@
         <v>532</v>
       </c>
       <c r="I18" s="7">
-        <v>371073</v>
+        <v>371074</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2434,10 +2425,10 @@
         <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2446,13 +2437,13 @@
         <v>88256</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2458,13 @@
         <v>132990</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>318</v>
@@ -2482,13 +2473,13 @@
         <v>233974</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>453</v>
@@ -2497,13 +2488,13 @@
         <v>366964</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2509,13 @@
         <v>140487</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -2533,13 +2524,13 @@
         <v>140371</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -2548,13 +2539,13 @@
         <v>280858</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2613,13 @@
         <v>574</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2637,13 +2628,13 @@
         <v>1753</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -2652,13 +2643,13 @@
         <v>2327</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2664,13 @@
         <v>8959</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2688,13 +2679,13 @@
         <v>7794</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -2703,13 +2694,13 @@
         <v>16752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2715,13 @@
         <v>129853</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -2739,13 +2730,13 @@
         <v>146186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>505</v>
@@ -2754,13 +2745,13 @@
         <v>276038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2766,13 @@
         <v>57362</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>153</v>
@@ -2790,13 +2781,13 @@
         <v>75434</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>232</v>
@@ -2805,13 +2796,13 @@
         <v>132796</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2870,13 @@
         <v>8776</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2894,13 +2885,13 @@
         <v>6021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2909,13 +2900,13 @@
         <v>14796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2921,13 @@
         <v>111882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -2945,13 +2936,13 @@
         <v>98002</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>294</v>
@@ -2960,13 +2951,13 @@
         <v>209884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2972,13 @@
         <v>143137</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>276</v>
@@ -2996,13 +2987,13 @@
         <v>155115</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>475</v>
@@ -3011,13 +3002,13 @@
         <v>298252</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3023,13 @@
         <v>13428</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3047,13 +3038,13 @@
         <v>16485</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -3062,13 +3053,13 @@
         <v>29913</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3136,13 +3127,13 @@
         <v>76134</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>67</v>
@@ -3151,13 +3142,13 @@
         <v>58038</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>132</v>
@@ -3166,13 +3157,13 @@
         <v>134172</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3178,13 @@
         <v>101346</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -3202,13 +3193,13 @@
         <v>120040</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>253</v>
@@ -3217,13 +3208,13 @@
         <v>221386</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3229,13 @@
         <v>192245</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>325</v>
@@ -3253,13 +3244,13 @@
         <v>230519</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>515</v>
@@ -3268,13 +3259,13 @@
         <v>422764</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3280,13 @@
         <v>255933</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>410</v>
@@ -3304,13 +3295,13 @@
         <v>395606</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>656</v>
@@ -3319,13 +3310,13 @@
         <v>651539</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3393,13 +3384,13 @@
         <v>19425</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>18</v>
@@ -3408,13 +3399,13 @@
         <v>17502</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>33</v>
@@ -3423,7 +3414,7 @@
         <v>36927</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>275</v>
@@ -3462,10 +3453,10 @@
         <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>215</v>
@@ -3474,13 +3465,13 @@
         <v>202024</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3486,13 @@
         <v>630996</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>769</v>
@@ -3510,13 +3501,13 @@
         <v>623960</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>1327</v>
@@ -3525,13 +3516,13 @@
         <v>1254956</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3537,13 @@
         <v>110369</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>153</v>
@@ -3561,13 +3552,13 @@
         <v>120818</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>246</v>
@@ -3576,13 +3567,13 @@
         <v>231187</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3641,13 @@
         <v>193293</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>199</v>
@@ -3665,13 +3656,13 @@
         <v>160094</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>371</v>
@@ -3680,13 +3671,13 @@
         <v>353387</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>312</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3692,13 @@
         <v>783396</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H45" s="7">
         <v>1006</v>
@@ -3716,13 +3707,13 @@
         <v>710745</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>1780</v>
@@ -3731,13 +3722,13 @@
         <v>1494141</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3743,13 @@
         <v>1681482</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>2916</v>
@@ -3767,13 +3758,13 @@
         <v>1985783</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>4636</v>
@@ -3782,13 +3773,13 @@
         <v>3667265</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3794,13 @@
         <v>723363</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>1235</v>
@@ -3818,13 +3809,13 @@
         <v>946448</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>1940</v>
@@ -3833,13 +3824,13 @@
         <v>1669811</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2B5B1F-71DC-49D9-BE9E-165FDCD8DD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBEB18-1254-421D-8124-11DD573D6F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE2ABE4-893F-4B1D-A75B-7865B8355528}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{78E35D50-D048-4BFC-98AB-B1BF1F042B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="339">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -71,982 +71,985 @@
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más por semana</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más por semana</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C94569-1837-42D2-B6F2-6C2F5F98DAC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531C3B1A-BC55-4227-BA1A-799F7FA9DD92}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,7 +1585,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>16793</v>
+        <v>20055</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1597,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>10445</v>
+        <v>12895</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1612,7 +1615,7 @@
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>27238</v>
+        <v>32950</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1633,7 +1636,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>119943</v>
+        <v>143608</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1648,7 +1651,7 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>108199</v>
+        <v>114286</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1663,7 +1666,7 @@
         <v>342</v>
       </c>
       <c r="N5" s="7">
-        <v>228142</v>
+        <v>257894</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1684,7 +1687,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="7">
-        <v>105332</v>
+        <v>127213</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1699,7 +1702,7 @@
         <v>263</v>
       </c>
       <c r="I6" s="7">
-        <v>128489</v>
+        <v>137099</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1714,7 +1717,7 @@
         <v>404</v>
       </c>
       <c r="N6" s="7">
-        <v>233821</v>
+        <v>264312</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1735,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>18229</v>
+        <v>20566</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1750,7 +1753,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>24270</v>
+        <v>25354</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1765,7 +1768,7 @@
         <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>42499</v>
+        <v>45920</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1786,7 +1789,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1801,7 +1804,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1819,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1839,7 +1842,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>37988</v>
+        <v>37147</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1854,7 +1857,7 @@
         <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>37622</v>
+        <v>35002</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1869,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>75610</v>
+        <v>72150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1890,7 +1893,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>193773</v>
+        <v>194740</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1905,7 +1908,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>152484</v>
+        <v>141686</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1920,7 +1923,7 @@
         <v>330</v>
       </c>
       <c r="N10" s="7">
-        <v>346257</v>
+        <v>336426</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1941,7 +1944,7 @@
         <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>229326</v>
+        <v>228151</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1956,7 +1959,7 @@
         <v>385</v>
       </c>
       <c r="I11" s="7">
-        <v>293074</v>
+        <v>272326</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1971,7 +1974,7 @@
         <v>554</v>
       </c>
       <c r="N11" s="7">
-        <v>522400</v>
+        <v>500478</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1992,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>58211</v>
+        <v>58352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2007,7 +2010,7 @@
         <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>71386</v>
+        <v>65954</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2022,7 +2025,7 @@
         <v>138</v>
       </c>
       <c r="N12" s="7">
-        <v>129597</v>
+        <v>124306</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2043,7 +2046,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2061,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2076,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2096,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>27801</v>
+        <v>27464</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2111,28 +2114,28 @@
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>20583</v>
+        <v>19050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>48384</v>
+        <v>46514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -2147,7 +2150,7 @@
         <v>112</v>
       </c>
       <c r="D15" s="7">
-        <v>107494</v>
+        <v>106625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -2162,7 +2165,7 @@
         <v>99</v>
       </c>
       <c r="I15" s="7">
-        <v>73944</v>
+        <v>69261</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -2177,7 +2180,7 @@
         <v>211</v>
       </c>
       <c r="N15" s="7">
-        <v>181439</v>
+        <v>175886</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -2198,7 +2201,7 @@
         <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>117602</v>
+        <v>114275</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -2213,7 +2216,7 @@
         <v>260</v>
       </c>
       <c r="I16" s="7">
-        <v>174468</v>
+        <v>163364</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -2228,16 +2231,16 @@
         <v>403</v>
       </c>
       <c r="N16" s="7">
-        <v>292070</v>
+        <v>277638</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,46 +2252,46 @@
         <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>69342</v>
+        <v>67686</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
       </c>
       <c r="I17" s="7">
-        <v>102079</v>
+        <v>95420</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>224</v>
       </c>
       <c r="N17" s="7">
-        <v>171421</v>
+        <v>163107</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2303,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2315,7 +2318,7 @@
         <v>532</v>
       </c>
       <c r="I18" s="7">
-        <v>371074</v>
+        <v>347095</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2330,7 +2333,7 @@
         <v>892</v>
       </c>
       <c r="N18" s="7">
-        <v>693314</v>
+        <v>663145</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2353,46 +2356,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>5803</v>
+        <v>5693</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>8130</v>
+        <v>7500</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>13933</v>
+        <v>13193</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,28 +2407,28 @@
         <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>42175</v>
+        <v>41112</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>46081</v>
+        <v>42413</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>138</v>
@@ -2434,7 +2437,7 @@
         <v>107</v>
       </c>
       <c r="N20" s="7">
-        <v>88256</v>
+        <v>83525</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2455,7 +2458,7 @@
         <v>135</v>
       </c>
       <c r="D21" s="7">
-        <v>132990</v>
+        <v>127003</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -2470,7 +2473,7 @@
         <v>318</v>
       </c>
       <c r="I21" s="7">
-        <v>233974</v>
+        <v>296204</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -2485,7 +2488,7 @@
         <v>453</v>
       </c>
       <c r="N21" s="7">
-        <v>366964</v>
+        <v>423206</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>
@@ -2506,7 +2509,7 @@
         <v>111</v>
       </c>
       <c r="D22" s="7">
-        <v>140487</v>
+        <v>138007</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -2521,7 +2524,7 @@
         <v>203</v>
       </c>
       <c r="I22" s="7">
-        <v>140371</v>
+        <v>129602</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>154</v>
@@ -2536,7 +2539,7 @@
         <v>314</v>
       </c>
       <c r="N22" s="7">
-        <v>280858</v>
+        <v>267609</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -2557,7 +2560,7 @@
         <v>291</v>
       </c>
       <c r="D23" s="7">
-        <v>321456</v>
+        <v>311815</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2572,7 +2575,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2587,7 +2590,7 @@
         <v>890</v>
       </c>
       <c r="N23" s="7">
-        <v>750012</v>
+        <v>787533</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2610,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
@@ -2625,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1753</v>
+        <v>1548</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>164</v>
@@ -2640,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>2327</v>
+        <v>2063</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
@@ -2661,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>8959</v>
+        <v>8109</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>170</v>
@@ -2676,31 +2679,31 @@
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>7794</v>
+        <v>7088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
       </c>
       <c r="N25" s="7">
-        <v>16752</v>
+        <v>15196</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,46 +2715,46 @@
         <v>185</v>
       </c>
       <c r="D26" s="7">
-        <v>129853</v>
+        <v>118037</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
       </c>
       <c r="I26" s="7">
-        <v>146186</v>
+        <v>131755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>505</v>
       </c>
       <c r="N26" s="7">
-        <v>276038</v>
+        <v>249791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,46 +2766,46 @@
         <v>79</v>
       </c>
       <c r="D27" s="7">
-        <v>57362</v>
+        <v>52082</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>153</v>
       </c>
       <c r="I27" s="7">
-        <v>75434</v>
+        <v>67578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>232</v>
       </c>
       <c r="N27" s="7">
-        <v>132796</v>
+        <v>119659</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2817,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2829,7 +2832,7 @@
         <v>490</v>
       </c>
       <c r="I28" s="7">
-        <v>231167</v>
+        <v>207968</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2844,7 +2847,7 @@
         <v>769</v>
       </c>
       <c r="N28" s="7">
-        <v>427914</v>
+        <v>386710</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2867,28 +2870,28 @@
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>8776</v>
+        <v>8512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
       </c>
       <c r="I29" s="7">
-        <v>6021</v>
+        <v>5564</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>200</v>
@@ -2897,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>14796</v>
+        <v>14076</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>201</v>
@@ -2918,7 +2921,7 @@
         <v>141</v>
       </c>
       <c r="D30" s="7">
-        <v>111882</v>
+        <v>109970</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>204</v>
@@ -2933,7 +2936,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="7">
-        <v>98002</v>
+        <v>91565</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>207</v>
@@ -2948,7 +2951,7 @@
         <v>294</v>
       </c>
       <c r="N30" s="7">
-        <v>209884</v>
+        <v>201535</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>210</v>
@@ -2969,7 +2972,7 @@
         <v>199</v>
       </c>
       <c r="D31" s="7">
-        <v>143137</v>
+        <v>138287</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>213</v>
@@ -2984,7 +2987,7 @@
         <v>276</v>
       </c>
       <c r="I31" s="7">
-        <v>155115</v>
+        <v>144572</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>216</v>
@@ -2999,7 +3002,7 @@
         <v>475</v>
       </c>
       <c r="N31" s="7">
-        <v>298252</v>
+        <v>282859</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>219</v>
@@ -3020,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="7">
-        <v>13428</v>
+        <v>12867</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>222</v>
@@ -3035,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="I32" s="7">
-        <v>16485</v>
+        <v>15354</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>225</v>
@@ -3050,7 +3053,7 @@
         <v>43</v>
       </c>
       <c r="N32" s="7">
-        <v>29913</v>
+        <v>28222</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>228</v>
@@ -3071,7 +3074,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3086,7 +3089,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3101,7 +3104,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3124,7 +3127,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="7">
-        <v>76134</v>
+        <v>76719</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>232</v>
@@ -3139,31 +3142,31 @@
         <v>67</v>
       </c>
       <c r="I34" s="7">
-        <v>58038</v>
+        <v>53863</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>132</v>
       </c>
       <c r="N34" s="7">
-        <v>134172</v>
+        <v>130582</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,22 +3178,22 @@
         <v>95</v>
       </c>
       <c r="D35" s="7">
-        <v>101346</v>
+        <v>100662</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
       </c>
       <c r="I35" s="7">
-        <v>120040</v>
+        <v>112220</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>243</v>
@@ -3205,7 +3208,7 @@
         <v>253</v>
       </c>
       <c r="N35" s="7">
-        <v>221386</v>
+        <v>212881</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>246</v>
@@ -3226,7 +3229,7 @@
         <v>190</v>
       </c>
       <c r="D36" s="7">
-        <v>192245</v>
+        <v>193196</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>249</v>
@@ -3241,7 +3244,7 @@
         <v>325</v>
       </c>
       <c r="I36" s="7">
-        <v>230519</v>
+        <v>214684</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>252</v>
@@ -3256,7 +3259,7 @@
         <v>515</v>
       </c>
       <c r="N36" s="7">
-        <v>422764</v>
+        <v>407880</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>255</v>
@@ -3277,7 +3280,7 @@
         <v>246</v>
       </c>
       <c r="D37" s="7">
-        <v>255933</v>
+        <v>251701</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>258</v>
@@ -3292,7 +3295,7 @@
         <v>410</v>
       </c>
       <c r="I37" s="7">
-        <v>395606</v>
+        <v>468498</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>261</v>
@@ -3307,7 +3310,7 @@
         <v>656</v>
       </c>
       <c r="N37" s="7">
-        <v>651539</v>
+        <v>720200</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>264</v>
@@ -3328,7 +3331,7 @@
         <v>596</v>
       </c>
       <c r="D38" s="7">
-        <v>625658</v>
+        <v>622278</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3343,7 +3346,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3358,7 +3361,7 @@
         <v>1556</v>
       </c>
       <c r="N38" s="7">
-        <v>1429861</v>
+        <v>1471543</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3381,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="7">
-        <v>19425</v>
+        <v>16363</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>268</v>
@@ -3396,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="7">
-        <v>17502</v>
+        <v>14239</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>271</v>
@@ -3411,7 +3414,7 @@
         <v>33</v>
       </c>
       <c r="N39" s="7">
-        <v>36927</v>
+        <v>30602</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>274</v>
@@ -3432,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="7">
-        <v>97824</v>
+        <v>83302</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>277</v>
@@ -3447,31 +3450,31 @@
         <v>120</v>
       </c>
       <c r="I40" s="7">
-        <v>104200</v>
+        <v>85933</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>215</v>
       </c>
       <c r="N40" s="7">
-        <v>202024</v>
+        <v>169236</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,46 +3486,46 @@
         <v>558</v>
       </c>
       <c r="D41" s="7">
-        <v>630996</v>
+        <v>735716</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>769</v>
       </c>
       <c r="I41" s="7">
-        <v>623960</v>
+        <v>516487</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>1327</v>
       </c>
       <c r="N41" s="7">
-        <v>1254956</v>
+        <v>1252202</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,46 +3537,46 @@
         <v>93</v>
       </c>
       <c r="D42" s="7">
-        <v>110369</v>
+        <v>92631</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>153</v>
       </c>
       <c r="I42" s="7">
-        <v>120818</v>
+        <v>99512</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>246</v>
       </c>
       <c r="N42" s="7">
-        <v>231187</v>
+        <v>192144</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3588,7 @@
         <v>761</v>
       </c>
       <c r="D43" s="7">
-        <v>858614</v>
+        <v>928012</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3600,7 +3603,7 @@
         <v>1060</v>
       </c>
       <c r="I43" s="7">
-        <v>866480</v>
+        <v>716172</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3615,7 +3618,7 @@
         <v>1821</v>
       </c>
       <c r="N43" s="7">
-        <v>1725094</v>
+        <v>1644184</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3638,46 +3641,46 @@
         <v>172</v>
       </c>
       <c r="D44" s="7">
-        <v>193293</v>
+        <v>192468</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>199</v>
       </c>
       <c r="I44" s="7">
-        <v>160094</v>
+        <v>149662</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>371</v>
       </c>
       <c r="N44" s="7">
-        <v>353387</v>
+        <v>342130</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,46 +3692,46 @@
         <v>774</v>
       </c>
       <c r="D45" s="7">
-        <v>783396</v>
+        <v>788127</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>1006</v>
       </c>
       <c r="I45" s="7">
-        <v>710745</v>
+        <v>664452</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>1780</v>
       </c>
       <c r="N45" s="7">
-        <v>1494141</v>
+        <v>1452580</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,46 +3743,46 @@
         <v>1720</v>
       </c>
       <c r="D46" s="7">
-        <v>1681482</v>
+        <v>1781878</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>2916</v>
       </c>
       <c r="I46" s="7">
-        <v>1985783</v>
+        <v>1876489</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>4636</v>
       </c>
       <c r="N46" s="7">
-        <v>3667265</v>
+        <v>3658368</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,46 +3794,46 @@
         <v>705</v>
       </c>
       <c r="D47" s="7">
-        <v>723363</v>
+        <v>693893</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7">
         <v>1235</v>
       </c>
       <c r="I47" s="7">
-        <v>946448</v>
+        <v>967272</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>1940</v>
       </c>
       <c r="N47" s="7">
-        <v>1669811</v>
+        <v>1661166</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3845,7 @@
         <v>3371</v>
       </c>
       <c r="D48" s="7">
-        <v>3381534</v>
+        <v>3456366</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3857,7 +3860,7 @@
         <v>5356</v>
       </c>
       <c r="I48" s="7">
-        <v>3803070</v>
+        <v>3657876</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3872,7 +3875,7 @@
         <v>8727</v>
       </c>
       <c r="N48" s="7">
-        <v>7184604</v>
+        <v>7114243</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3886,7 +3889,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
